--- a/templates/MOCK_View_Data_Export.xlsx
+++ b/templates/MOCK_View_Data_Export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Sasa\events-tracker\Claude-temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Sasa\events-tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A5687A-7E3B-4121-A94B-72864BB2D7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677EEB1-801F-41B4-8AFB-ECD07ED4ABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,6 +364,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -372,9 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,7 +687,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -703,49 +703,49 @@
     <col min="9" max="9" width="6" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="14" customWidth="1" outlineLevel="1"/>
     <col min="11" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
